--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_64ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_64ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2752,28 +2752,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1268.162584805694</v>
+        <v>1353.446448246869</v>
       </c>
       <c r="AB2" t="n">
-        <v>1735.155995915823</v>
+        <v>1851.845140334554</v>
       </c>
       <c r="AC2" t="n">
-        <v>1569.555142972352</v>
+        <v>1675.107639222002</v>
       </c>
       <c r="AD2" t="n">
-        <v>1268162.584805693</v>
+        <v>1353446.448246869</v>
       </c>
       <c r="AE2" t="n">
-        <v>1735155.995915823</v>
+        <v>1851845.140334554</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.176972219605116e-06</v>
+        <v>2.177706754579432e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.91178385416667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1569555.142972352</v>
+        <v>1675107.639222002</v>
       </c>
     </row>
     <row r="3">
@@ -2858,28 +2858,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>612.3086135313247</v>
+        <v>661.0057646400169</v>
       </c>
       <c r="AB3" t="n">
-        <v>837.7876581830958</v>
+        <v>904.417248696691</v>
       </c>
       <c r="AC3" t="n">
-        <v>757.8303799284636</v>
+        <v>818.1009358386591</v>
       </c>
       <c r="AD3" t="n">
-        <v>612308.6135313247</v>
+        <v>661005.7646400168</v>
       </c>
       <c r="AE3" t="n">
-        <v>837787.6581830957</v>
+        <v>904417.248696691</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.853875963230143e-06</v>
+        <v>3.430155903453054e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.196614583333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>757830.3799284636</v>
+        <v>818100.9358386591</v>
       </c>
     </row>
     <row r="4">
@@ -2964,28 +2964,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>492.9509598231126</v>
+        <v>529.5378511726982</v>
       </c>
       <c r="AB4" t="n">
-        <v>674.4772506914721</v>
+        <v>724.537049535704</v>
       </c>
       <c r="AC4" t="n">
-        <v>610.1060885202442</v>
+        <v>655.3882504221513</v>
       </c>
       <c r="AD4" t="n">
-        <v>492950.9598231126</v>
+        <v>529537.8511726982</v>
       </c>
       <c r="AE4" t="n">
-        <v>674477.2506914721</v>
+        <v>724537.049535704</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.114087098882963e-06</v>
+        <v>3.911614631440748e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.1875</v>
       </c>
       <c r="AH4" t="n">
-        <v>610106.0885202441</v>
+        <v>655388.2504221513</v>
       </c>
     </row>
     <row r="5">
@@ -3070,28 +3070,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>430.8810067679041</v>
+        <v>479.5780683680453</v>
       </c>
       <c r="AB5" t="n">
-        <v>589.5504025882692</v>
+        <v>656.1798706323161</v>
       </c>
       <c r="AC5" t="n">
-        <v>533.2845396044307</v>
+        <v>593.5549847333996</v>
       </c>
       <c r="AD5" t="n">
-        <v>430881.0067679042</v>
+        <v>479578.0683680453</v>
       </c>
       <c r="AE5" t="n">
-        <v>589550.4025882692</v>
+        <v>656179.8706323161</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.256283568061021e-06</v>
+        <v>4.174715328507579e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.735026041666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>533284.5396044308</v>
+        <v>593554.9847333996</v>
       </c>
     </row>
     <row r="6">
@@ -3176,28 +3176,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>399.1361222990143</v>
+        <v>435.6376727940283</v>
       </c>
       <c r="AB6" t="n">
-        <v>546.1156511724727</v>
+        <v>596.0586828945068</v>
       </c>
       <c r="AC6" t="n">
-        <v>493.9951399027015</v>
+        <v>539.17167877267</v>
       </c>
       <c r="AD6" t="n">
-        <v>399136.1222990144</v>
+        <v>435637.6727940283</v>
       </c>
       <c r="AE6" t="n">
-        <v>546115.6511724726</v>
+        <v>596058.6828945067</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.343113979312231e-06</v>
+        <v>4.335374322776885e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.486002604166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>493995.1399027015</v>
+        <v>539171.67877267</v>
       </c>
     </row>
     <row r="7">
@@ -3282,28 +3282,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>374.26263249632</v>
+        <v>410.7641829913339</v>
       </c>
       <c r="AB7" t="n">
-        <v>512.0826450835025</v>
+        <v>562.0256768055366</v>
       </c>
       <c r="AC7" t="n">
-        <v>463.2101961492386</v>
+        <v>508.386735019207</v>
       </c>
       <c r="AD7" t="n">
-        <v>374262.6324963199</v>
+        <v>410764.1829913339</v>
       </c>
       <c r="AE7" t="n">
-        <v>512082.6450835025</v>
+        <v>562025.6768055366</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.404455463389699e-06</v>
+        <v>4.448872128405846e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.319986979166667</v>
       </c>
       <c r="AH7" t="n">
-        <v>463210.1961492386</v>
+        <v>508386.735019207</v>
       </c>
     </row>
     <row r="8">
@@ -3388,28 +3388,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>369.4948803641448</v>
+        <v>405.9964308591588</v>
       </c>
       <c r="AB8" t="n">
-        <v>505.5591962778813</v>
+        <v>555.5022279999155</v>
       </c>
       <c r="AC8" t="n">
-        <v>457.3093361419081</v>
+        <v>502.4858750118764</v>
       </c>
       <c r="AD8" t="n">
-        <v>369494.8803641448</v>
+        <v>405996.4308591588</v>
       </c>
       <c r="AE8" t="n">
-        <v>505559.1962778813</v>
+        <v>555502.2279999155</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.416593047758148e-06</v>
+        <v>4.471329837282201e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.287434895833333</v>
       </c>
       <c r="AH8" t="n">
-        <v>457309.3361419081</v>
+        <v>502485.8750118765</v>
       </c>
     </row>
   </sheetData>
@@ -3685,28 +3685,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>878.6281417347136</v>
+        <v>949.1250736764453</v>
       </c>
       <c r="AB2" t="n">
-        <v>1202.17778585934</v>
+        <v>1298.634798247155</v>
       </c>
       <c r="AC2" t="n">
-        <v>1087.443625244044</v>
+        <v>1174.694915747833</v>
       </c>
       <c r="AD2" t="n">
-        <v>878628.1417347136</v>
+        <v>949125.0736764453</v>
       </c>
       <c r="AE2" t="n">
-        <v>1202177.785859341</v>
+        <v>1298634.798247155</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.448304903146081e-06</v>
+        <v>2.760692665766075e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.8544921875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1087443.625244044</v>
+        <v>1174694.915747833</v>
       </c>
     </row>
     <row r="3">
@@ -3791,28 +3791,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>484.7475587736496</v>
+        <v>531.8024073045186</v>
       </c>
       <c r="AB3" t="n">
-        <v>663.252995467085</v>
+        <v>727.6355151404264</v>
       </c>
       <c r="AC3" t="n">
-        <v>599.9530604611313</v>
+        <v>658.1910028182828</v>
       </c>
       <c r="AD3" t="n">
-        <v>484747.5587736496</v>
+        <v>531802.4073045186</v>
       </c>
       <c r="AE3" t="n">
-        <v>663252.995467085</v>
+        <v>727635.5151404263</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.079783226371762e-06</v>
+        <v>3.964387807398526e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.55859375</v>
       </c>
       <c r="AH3" t="n">
-        <v>599953.0604611313</v>
+        <v>658191.0028182828</v>
       </c>
     </row>
     <row r="4">
@@ -3897,28 +3897,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>395.8498302217928</v>
+        <v>442.8193378980901</v>
       </c>
       <c r="AB4" t="n">
-        <v>541.619201371444</v>
+        <v>605.8849539225876</v>
       </c>
       <c r="AC4" t="n">
-        <v>489.9278249598759</v>
+        <v>548.0601442850888</v>
       </c>
       <c r="AD4" t="n">
-        <v>395849.8302217929</v>
+        <v>442819.3378980901</v>
       </c>
       <c r="AE4" t="n">
-        <v>541619.2013714439</v>
+        <v>605884.9539225876</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.315549299634821e-06</v>
+        <v>4.41379432938152e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.788736979166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>489927.8249598759</v>
+        <v>548060.1442850888</v>
       </c>
     </row>
     <row r="5">
@@ -4003,28 +4003,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>353.7910384001029</v>
+        <v>388.9969234522341</v>
       </c>
       <c r="AB5" t="n">
-        <v>484.0725068980676</v>
+        <v>532.2427520004242</v>
       </c>
       <c r="AC5" t="n">
-        <v>437.8733062397457</v>
+        <v>481.4462507568971</v>
       </c>
       <c r="AD5" t="n">
-        <v>353791.0384001029</v>
+        <v>388996.9234522341</v>
       </c>
       <c r="AE5" t="n">
-        <v>484072.5068980675</v>
+        <v>532242.7520004242</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.442076770333145e-06</v>
+        <v>4.65497521582057e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.437174479166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>437873.3062397456</v>
+        <v>481446.2507568971</v>
       </c>
     </row>
     <row r="6">
@@ -4109,28 +4109,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>341.0546437010644</v>
+        <v>376.2605287531957</v>
       </c>
       <c r="AB6" t="n">
-        <v>466.6460097807652</v>
+        <v>514.8162548831219</v>
       </c>
       <c r="AC6" t="n">
-        <v>422.1099695490763</v>
+        <v>465.6829140662278</v>
       </c>
       <c r="AD6" t="n">
-        <v>341054.6437010645</v>
+        <v>376260.5287531957</v>
       </c>
       <c r="AE6" t="n">
-        <v>466646.0097807652</v>
+        <v>514816.2548831219</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.478489637854724e-06</v>
+        <v>4.724383761001885e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.3427734375</v>
       </c>
       <c r="AH6" t="n">
-        <v>422109.9695490763</v>
+        <v>465682.9140662278</v>
       </c>
     </row>
     <row r="7">
@@ -4215,28 +4215,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>341.985660427115</v>
+        <v>377.1915454792461</v>
       </c>
       <c r="AB7" t="n">
-        <v>467.9198679389064</v>
+        <v>516.0901130412633</v>
       </c>
       <c r="AC7" t="n">
-        <v>423.2622524724758</v>
+        <v>466.8351969896272</v>
       </c>
       <c r="AD7" t="n">
-        <v>341985.660427115</v>
+        <v>377191.5454792461</v>
       </c>
       <c r="AE7" t="n">
-        <v>467919.8679389064</v>
+        <v>516090.1130412633</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.479648668120663e-06</v>
+        <v>4.726593051564685e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.339518229166667</v>
       </c>
       <c r="AH7" t="n">
-        <v>423262.2524724758</v>
+        <v>466835.1969896272</v>
       </c>
     </row>
   </sheetData>
@@ -4512,28 +4512,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>342.9067394405847</v>
+        <v>384.589917204756</v>
       </c>
       <c r="AB2" t="n">
-        <v>469.180128880274</v>
+        <v>526.212891629231</v>
       </c>
       <c r="AC2" t="n">
-        <v>424.4022358783865</v>
+        <v>475.9918717965681</v>
       </c>
       <c r="AD2" t="n">
-        <v>342906.7394405847</v>
+        <v>384589.917204756</v>
       </c>
       <c r="AE2" t="n">
-        <v>469180.128880274</v>
+        <v>526212.8916292309</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.339056979225744e-06</v>
+        <v>4.981579227675949e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>424402.2358783865</v>
+        <v>475991.8717965682</v>
       </c>
     </row>
     <row r="3">
@@ -4618,28 +4618,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>276.2357720332545</v>
+        <v>318.0042011434465</v>
       </c>
       <c r="AB3" t="n">
-        <v>377.9579699580706</v>
+        <v>435.1073773596767</v>
       </c>
       <c r="AC3" t="n">
-        <v>341.8861917726141</v>
+        <v>393.581339941508</v>
       </c>
       <c r="AD3" t="n">
-        <v>276235.7720332546</v>
+        <v>318004.2011434465</v>
       </c>
       <c r="AE3" t="n">
-        <v>377957.9699580706</v>
+        <v>435107.3773596767</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.595563250734626e-06</v>
+        <v>5.527870457545956e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.7578125</v>
       </c>
       <c r="AH3" t="n">
-        <v>341886.1917726141</v>
+        <v>393581.339941508</v>
       </c>
     </row>
   </sheetData>
@@ -4915,28 +4915,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>492.5041066812379</v>
+        <v>536.3060395200187</v>
       </c>
       <c r="AB2" t="n">
-        <v>673.8658465089896</v>
+        <v>733.7975834239041</v>
       </c>
       <c r="AC2" t="n">
-        <v>609.5530358948266</v>
+        <v>663.7649719533026</v>
       </c>
       <c r="AD2" t="n">
-        <v>492504.1066812379</v>
+        <v>536306.0395200186</v>
       </c>
       <c r="AE2" t="n">
-        <v>673865.8465089897</v>
+        <v>733797.5834239041</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.975400853704205e-06</v>
+        <v>4.010746691640307e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.49609375</v>
       </c>
       <c r="AH2" t="n">
-        <v>609553.0358948266</v>
+        <v>663764.9719533026</v>
       </c>
     </row>
     <row r="3">
@@ -5021,28 +5021,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>313.9403263476935</v>
+        <v>357.7421696779232</v>
       </c>
       <c r="AB3" t="n">
-        <v>429.5470045786249</v>
+        <v>489.4786190239909</v>
       </c>
       <c r="AC3" t="n">
-        <v>388.5516413346475</v>
+        <v>442.7634666118969</v>
       </c>
       <c r="AD3" t="n">
-        <v>313940.3263476935</v>
+        <v>357742.1696779233</v>
       </c>
       <c r="AE3" t="n">
-        <v>429547.0045786249</v>
+        <v>489478.6190239909</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.512065681906637e-06</v>
+        <v>5.100361834914371e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.6796875</v>
       </c>
       <c r="AH3" t="n">
-        <v>388551.6413346475</v>
+        <v>442763.4666118969</v>
       </c>
     </row>
     <row r="4">
@@ -5127,28 +5127,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>298.085980501769</v>
+        <v>331.0867094949418</v>
       </c>
       <c r="AB4" t="n">
-        <v>407.8543891478567</v>
+        <v>453.0074424457271</v>
       </c>
       <c r="AC4" t="n">
-        <v>368.9293386748149</v>
+        <v>409.7730479386449</v>
       </c>
       <c r="AD4" t="n">
-        <v>298085.9805017691</v>
+        <v>331086.7094949418</v>
       </c>
       <c r="AE4" t="n">
-        <v>407854.3891478567</v>
+        <v>453007.4424457271</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.57877502750644e-06</v>
+        <v>5.235804870014913e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.507161458333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>368929.3386748148</v>
+        <v>409773.0479386449</v>
       </c>
     </row>
   </sheetData>
@@ -5424,28 +5424,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>271.2337934265047</v>
+        <v>301.3733478260363</v>
       </c>
       <c r="AB2" t="n">
-        <v>371.1140421565937</v>
+        <v>412.3523101493298</v>
       </c>
       <c r="AC2" t="n">
-        <v>335.695438834997</v>
+        <v>372.9979844087791</v>
       </c>
       <c r="AD2" t="n">
-        <v>271233.7934265048</v>
+        <v>301373.3478260363</v>
       </c>
       <c r="AE2" t="n">
-        <v>371114.0421565937</v>
+        <v>412352.3101493298</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.567210395507921e-06</v>
+        <v>5.716676112887332e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.096354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>335695.4388349971</v>
+        <v>372997.9844087791</v>
       </c>
     </row>
     <row r="3">
@@ -5530,28 +5530,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>272.6025909355201</v>
+        <v>302.7421453350516</v>
       </c>
       <c r="AB3" t="n">
-        <v>372.9868912955127</v>
+        <v>414.2251592882488</v>
       </c>
       <c r="AC3" t="n">
-        <v>337.389545880658</v>
+        <v>374.6920914544399</v>
       </c>
       <c r="AD3" t="n">
-        <v>272602.5909355201</v>
+        <v>302742.1453350516</v>
       </c>
       <c r="AE3" t="n">
-        <v>372986.8912955127</v>
+        <v>414225.1592882488</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.571911631026183e-06</v>
+        <v>5.72714484612218e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>337389.545880658</v>
+        <v>374692.09145444</v>
       </c>
     </row>
   </sheetData>
@@ -5827,28 +5827,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>967.4371057369616</v>
+        <v>1038.52989550192</v>
       </c>
       <c r="AB2" t="n">
-        <v>1323.690128382191</v>
+        <v>1420.962419731137</v>
       </c>
       <c r="AC2" t="n">
-        <v>1197.359000340157</v>
+        <v>1285.347760725278</v>
       </c>
       <c r="AD2" t="n">
-        <v>967437.1057369616</v>
+        <v>1038529.89550192</v>
       </c>
       <c r="AE2" t="n">
-        <v>1323690.128382191</v>
+        <v>1420962.419731137</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.377672508642026e-06</v>
+        <v>2.604853126600811e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.30859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1197359.000340157</v>
+        <v>1285347.760725278</v>
       </c>
     </row>
     <row r="3">
@@ -5933,28 +5933,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>512.1873412372031</v>
+        <v>559.6962625475705</v>
       </c>
       <c r="AB3" t="n">
-        <v>700.7973163914841</v>
+        <v>765.8011184740124</v>
       </c>
       <c r="AC3" t="n">
-        <v>633.9142040902909</v>
+        <v>692.7141345354721</v>
       </c>
       <c r="AD3" t="n">
-        <v>512187.341237203</v>
+        <v>559696.2625475705</v>
       </c>
       <c r="AE3" t="n">
-        <v>700797.3163914841</v>
+        <v>765801.1184740124</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.020611870870087e-06</v>
+        <v>3.820499513829162e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.7099609375</v>
       </c>
       <c r="AH3" t="n">
-        <v>633914.2040902909</v>
+        <v>692714.1345354721</v>
       </c>
     </row>
     <row r="4">
@@ -6039,28 +6039,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>416.1392828233854</v>
+        <v>463.5628632791813</v>
       </c>
       <c r="AB4" t="n">
-        <v>569.3801255284183</v>
+        <v>634.2671604887489</v>
       </c>
       <c r="AC4" t="n">
-        <v>515.0392854780105</v>
+        <v>573.7335928912527</v>
       </c>
       <c r="AD4" t="n">
-        <v>416139.2828233854</v>
+        <v>463562.8632791813</v>
       </c>
       <c r="AE4" t="n">
-        <v>569380.1255284182</v>
+        <v>634267.1604887489</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.26383189758164e-06</v>
+        <v>4.28037110381684e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.881510416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>515039.2854780105</v>
+        <v>573733.5928912527</v>
       </c>
     </row>
     <row r="5">
@@ -6145,28 +6145,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>373.7328443254343</v>
+        <v>409.4498761627815</v>
       </c>
       <c r="AB5" t="n">
-        <v>511.3577655354923</v>
+        <v>560.2273842195863</v>
       </c>
       <c r="AC5" t="n">
-        <v>462.5544980879156</v>
+        <v>506.7600689537402</v>
       </c>
       <c r="AD5" t="n">
-        <v>373732.8443254343</v>
+        <v>409449.8761627816</v>
       </c>
       <c r="AE5" t="n">
-        <v>511357.7655354923</v>
+        <v>560227.3842195863</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.393434383283113e-06</v>
+        <v>4.525418775144395e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.5087890625</v>
       </c>
       <c r="AH5" t="n">
-        <v>462554.4980879156</v>
+        <v>506760.0689537402</v>
       </c>
     </row>
     <row r="6">
@@ -6251,28 +6251,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>348.1470741461205</v>
+        <v>383.6935137828754</v>
       </c>
       <c r="AB6" t="n">
-        <v>476.350186011639</v>
+        <v>524.9863929208859</v>
       </c>
       <c r="AC6" t="n">
-        <v>430.8879928203724</v>
+        <v>474.882428403546</v>
       </c>
       <c r="AD6" t="n">
-        <v>348147.0741461205</v>
+        <v>383693.5137828754</v>
       </c>
       <c r="AE6" t="n">
-        <v>476350.186011639</v>
+        <v>524986.3929208859</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.462830101254729e-06</v>
+        <v>4.656629677443122e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.324869791666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>430887.9928203724</v>
+        <v>474882.428403546</v>
       </c>
     </row>
     <row r="7">
@@ -6357,28 +6357,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>348.2662876153273</v>
+        <v>383.8127272520822</v>
       </c>
       <c r="AB7" t="n">
-        <v>476.5132991395346</v>
+        <v>525.1495060487816</v>
       </c>
       <c r="AC7" t="n">
-        <v>431.0355386602724</v>
+        <v>475.029974243446</v>
       </c>
       <c r="AD7" t="n">
-        <v>348266.2876153273</v>
+        <v>383812.7272520822</v>
       </c>
       <c r="AE7" t="n">
-        <v>476513.2991395346</v>
+        <v>525149.5060487817</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.465701648205279e-06</v>
+        <v>4.662059094089967e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.318359375</v>
       </c>
       <c r="AH7" t="n">
-        <v>431035.5386602724</v>
+        <v>475029.974243446</v>
       </c>
     </row>
   </sheetData>
@@ -6654,28 +6654,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>262.7600484393662</v>
+        <v>301.787812177969</v>
       </c>
       <c r="AB2" t="n">
-        <v>359.5198904299458</v>
+        <v>412.9193985605209</v>
       </c>
       <c r="AC2" t="n">
-        <v>325.2078166766463</v>
+        <v>373.5109506979198</v>
       </c>
       <c r="AD2" t="n">
-        <v>262760.0484393662</v>
+        <v>301787.812177969</v>
       </c>
       <c r="AE2" t="n">
-        <v>359519.8904299458</v>
+        <v>412919.3985605209</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.530096825183718e-06</v>
+        <v>5.800415851102923e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.369791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>325207.8166766463</v>
+        <v>373510.9506979198</v>
       </c>
     </row>
   </sheetData>
@@ -6951,28 +6951,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>664.871220692664</v>
+        <v>721.8476740259491</v>
       </c>
       <c r="AB2" t="n">
-        <v>909.7061361998086</v>
+        <v>987.6638332741275</v>
       </c>
       <c r="AC2" t="n">
-        <v>822.8850593414793</v>
+        <v>893.4025832213403</v>
       </c>
       <c r="AD2" t="n">
-        <v>664871.220692664</v>
+        <v>721847.6740259491</v>
       </c>
       <c r="AE2" t="n">
-        <v>909706.1361998086</v>
+        <v>987663.8332741274</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.690035400297648e-06</v>
+        <v>3.312446028405393e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.583333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>822885.0593414793</v>
+        <v>893402.5832213402</v>
       </c>
     </row>
     <row r="3">
@@ -7057,28 +7057,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>405.0015187990616</v>
+        <v>439.1874803075835</v>
       </c>
       <c r="AB3" t="n">
-        <v>554.140945426868</v>
+        <v>600.9156861410078</v>
       </c>
       <c r="AC3" t="n">
-        <v>501.2545113370286</v>
+        <v>543.5651364461717</v>
       </c>
       <c r="AD3" t="n">
-        <v>405001.5187990615</v>
+        <v>439187.4803075835</v>
       </c>
       <c r="AE3" t="n">
-        <v>554140.945426868</v>
+        <v>600915.6861410078</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.275671526468033e-06</v>
+        <v>4.460284742246632e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.117513020833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>501254.5113370286</v>
+        <v>543565.1364461717</v>
       </c>
     </row>
     <row r="4">
@@ -7163,28 +7163,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>331.3844417498102</v>
+        <v>365.4850624037605</v>
       </c>
       <c r="AB4" t="n">
-        <v>453.4148128518581</v>
+        <v>500.0727864438002</v>
       </c>
       <c r="AC4" t="n">
-        <v>410.1415394849627</v>
+        <v>452.346541562167</v>
       </c>
       <c r="AD4" t="n">
-        <v>331384.4417498101</v>
+        <v>365485.0624037605</v>
       </c>
       <c r="AE4" t="n">
-        <v>453414.8128518582</v>
+        <v>500072.7864438002</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.492113085418006e-06</v>
+        <v>4.88450720658048e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.4990234375</v>
       </c>
       <c r="AH4" t="n">
-        <v>410141.5394849627</v>
+        <v>452346.541562167</v>
       </c>
     </row>
     <row r="5">
@@ -7269,28 +7269,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>320.3794386917628</v>
+        <v>354.4800593457132</v>
       </c>
       <c r="AB5" t="n">
-        <v>438.3572821613683</v>
+        <v>485.0152557533103</v>
       </c>
       <c r="AC5" t="n">
-        <v>396.5210783901961</v>
+        <v>438.7260804674004</v>
       </c>
       <c r="AD5" t="n">
-        <v>320379.4386917628</v>
+        <v>354480.0593457132</v>
       </c>
       <c r="AE5" t="n">
-        <v>438357.2821613683</v>
+        <v>485015.2557533103</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.530823782627909e-06</v>
+        <v>4.960379638132602e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.399739583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>396521.0783901961</v>
+        <v>438726.0804674004</v>
       </c>
     </row>
   </sheetData>
@@ -7566,28 +7566,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>807.5201296287622</v>
+        <v>865.6642646127646</v>
       </c>
       <c r="AB2" t="n">
-        <v>1104.884666631887</v>
+        <v>1184.440037255196</v>
       </c>
       <c r="AC2" t="n">
-        <v>999.4360247639079</v>
+        <v>1071.398742471592</v>
       </c>
       <c r="AD2" t="n">
-        <v>807520.1296287623</v>
+        <v>865664.2646127646</v>
       </c>
       <c r="AE2" t="n">
-        <v>1104884.666631887</v>
+        <v>1184440.037255196</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.522708524693217e-06</v>
+        <v>2.927716372254794e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.42154947916667</v>
       </c>
       <c r="AH2" t="n">
-        <v>999436.0247639079</v>
+        <v>1071398.742471592</v>
       </c>
     </row>
     <row r="3">
@@ -7672,28 +7672,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>457.7883496773233</v>
+        <v>504.2012665407494</v>
       </c>
       <c r="AB3" t="n">
-        <v>626.3662162251263</v>
+        <v>689.870416671046</v>
       </c>
       <c r="AC3" t="n">
-        <v>566.5867036591053</v>
+        <v>624.0301523431715</v>
       </c>
       <c r="AD3" t="n">
-        <v>457788.3496773232</v>
+        <v>504201.2665407493</v>
       </c>
       <c r="AE3" t="n">
-        <v>626366.2162251263</v>
+        <v>689870.4166710459</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.14204927828554e-06</v>
+        <v>4.118524747522928e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.408854166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>566586.7036591053</v>
+        <v>624030.1523431715</v>
       </c>
     </row>
     <row r="4">
@@ -7778,28 +7778,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>373.9221547162385</v>
+        <v>420.4203229256852</v>
       </c>
       <c r="AB4" t="n">
-        <v>511.6167883639756</v>
+        <v>575.2376334625445</v>
       </c>
       <c r="AC4" t="n">
-        <v>462.7888001411893</v>
+        <v>520.3377610759677</v>
       </c>
       <c r="AD4" t="n">
-        <v>373922.1547162386</v>
+        <v>420420.3229256853</v>
       </c>
       <c r="AE4" t="n">
-        <v>511616.7883639756</v>
+        <v>575237.6334625445</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.373912047813648e-06</v>
+        <v>4.564328008918965e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.6845703125</v>
       </c>
       <c r="AH4" t="n">
-        <v>462788.8001411893</v>
+        <v>520337.7610759677</v>
       </c>
     </row>
     <row r="5">
@@ -7884,28 +7884,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>336.8463214389615</v>
+        <v>371.6987018909547</v>
       </c>
       <c r="AB5" t="n">
-        <v>460.8879976036808</v>
+        <v>508.5745621166065</v>
       </c>
       <c r="AC5" t="n">
-        <v>416.9014939727521</v>
+        <v>460.0369196970778</v>
       </c>
       <c r="AD5" t="n">
-        <v>336846.3214389615</v>
+        <v>371698.7018909547</v>
       </c>
       <c r="AE5" t="n">
-        <v>460887.9976036808</v>
+        <v>508574.5621166065</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.486528321491093e-06</v>
+        <v>4.780855665316114e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.3818359375</v>
       </c>
       <c r="AH5" t="n">
-        <v>416901.4939727521</v>
+        <v>460036.9196970778</v>
       </c>
     </row>
     <row r="6">
@@ -7990,28 +7990,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>333.9786846942411</v>
+        <v>368.8310651462342</v>
       </c>
       <c r="AB6" t="n">
-        <v>456.9643704983498</v>
+        <v>504.6509350112755</v>
       </c>
       <c r="AC6" t="n">
-        <v>413.3523323315085</v>
+        <v>456.4877580558343</v>
       </c>
       <c r="AD6" t="n">
-        <v>333978.684694241</v>
+        <v>368831.0651462342</v>
       </c>
       <c r="AE6" t="n">
-        <v>456964.3704983498</v>
+        <v>504650.9350112755</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.49920374623401e-06</v>
+        <v>4.805226743525318e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.349283854166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>413352.3323315085</v>
+        <v>456487.7580558343</v>
       </c>
     </row>
   </sheetData>
@@ -8287,28 +8287,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1162.413522911042</v>
+        <v>1234.885404201239</v>
       </c>
       <c r="AB2" t="n">
-        <v>1590.465464112212</v>
+        <v>1689.624689327212</v>
       </c>
       <c r="AC2" t="n">
-        <v>1438.67367244964</v>
+        <v>1528.369280380968</v>
       </c>
       <c r="AD2" t="n">
-        <v>1162413.522911042</v>
+        <v>1234885.404201239</v>
       </c>
       <c r="AE2" t="n">
-        <v>1590465.464112212</v>
+        <v>1689624.689327212</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.240966172662188e-06</v>
+        <v>2.311825856822862e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.34375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1438673.67244964</v>
+        <v>1528369.280380968</v>
       </c>
     </row>
     <row r="3">
@@ -8393,28 +8393,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>581.2881867945407</v>
+        <v>629.5743572059984</v>
       </c>
       <c r="AB3" t="n">
-        <v>795.344141797186</v>
+        <v>861.4114103896364</v>
       </c>
       <c r="AC3" t="n">
-        <v>719.4376131765757</v>
+        <v>779.1995143805565</v>
       </c>
       <c r="AD3" t="n">
-        <v>581288.1867945407</v>
+        <v>629574.3572059984</v>
       </c>
       <c r="AE3" t="n">
-        <v>795344.141797186</v>
+        <v>861411.4103896364</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.90907013593603e-06</v>
+        <v>3.556452867105397e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.024088541666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>719437.6131765757</v>
+        <v>779199.5143805565</v>
       </c>
     </row>
     <row r="4">
@@ -8499,28 +8499,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>471.5035250965485</v>
+        <v>507.7821809232083</v>
       </c>
       <c r="AB4" t="n">
-        <v>645.1319243045463</v>
+        <v>694.7699817079193</v>
       </c>
       <c r="AC4" t="n">
-        <v>583.5614388972621</v>
+        <v>628.4621097695084</v>
       </c>
       <c r="AD4" t="n">
-        <v>471503.5250965485</v>
+        <v>507782.1809232083</v>
       </c>
       <c r="AE4" t="n">
-        <v>645131.9243045462</v>
+        <v>694769.9817079193</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.161103156593495e-06</v>
+        <v>4.025971268786848e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.088216145833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>583561.4388972621</v>
+        <v>628462.1097695084</v>
       </c>
     </row>
     <row r="5">
@@ -8605,28 +8605,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>411.4202041357823</v>
+        <v>459.7062850386889</v>
       </c>
       <c r="AB5" t="n">
-        <v>562.9232738769813</v>
+        <v>628.9904199998833</v>
       </c>
       <c r="AC5" t="n">
-        <v>509.1986666859383</v>
+        <v>568.9604571086925</v>
       </c>
       <c r="AD5" t="n">
-        <v>411420.2041357823</v>
+        <v>459706.2850386889</v>
       </c>
       <c r="AE5" t="n">
-        <v>562923.2738769812</v>
+        <v>628990.4199998833</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.301612977296108e-06</v>
+        <v>4.287730407588345e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.6552734375</v>
       </c>
       <c r="AH5" t="n">
-        <v>509198.6666859384</v>
+        <v>568960.4571086925</v>
       </c>
     </row>
     <row r="6">
@@ -8711,28 +8711,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>380.6594464450918</v>
+        <v>416.8527614171798</v>
       </c>
       <c r="AB6" t="n">
-        <v>520.8350481357262</v>
+        <v>570.3563384169016</v>
       </c>
       <c r="AC6" t="n">
-        <v>471.1272821382329</v>
+        <v>515.9223299785405</v>
       </c>
       <c r="AD6" t="n">
-        <v>380659.4464450917</v>
+        <v>416852.7614171798</v>
       </c>
       <c r="AE6" t="n">
-        <v>520835.0481357262</v>
+        <v>570356.3384169016</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.383678994478075e-06</v>
+        <v>4.440613173184396e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.42578125</v>
       </c>
       <c r="AH6" t="n">
-        <v>471127.2821382329</v>
+        <v>515922.3299785404</v>
       </c>
     </row>
     <row r="7">
@@ -8817,28 +8817,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>362.5430968080318</v>
+        <v>398.7364117801198</v>
       </c>
       <c r="AB7" t="n">
-        <v>496.0474593253621</v>
+        <v>545.5687496065375</v>
       </c>
       <c r="AC7" t="n">
-        <v>448.7053860143305</v>
+        <v>493.500433854638</v>
       </c>
       <c r="AD7" t="n">
-        <v>362543.0968080318</v>
+        <v>398736.4117801198</v>
       </c>
       <c r="AE7" t="n">
-        <v>496047.4593253621</v>
+        <v>545568.7496065375</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.428100049649966e-06</v>
+        <v>4.523366229791434e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.30859375</v>
       </c>
       <c r="AH7" t="n">
-        <v>448705.3860143305</v>
+        <v>493500.433854638</v>
       </c>
     </row>
     <row r="8">
@@ -8923,28 +8923,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>363.0259302437608</v>
+        <v>399.2192452158489</v>
       </c>
       <c r="AB8" t="n">
-        <v>496.7080933332344</v>
+        <v>546.2293836144098</v>
       </c>
       <c r="AC8" t="n">
-        <v>449.3029700396971</v>
+        <v>494.0980178800046</v>
       </c>
       <c r="AD8" t="n">
-        <v>363025.9302437608</v>
+        <v>399219.2452158489</v>
       </c>
       <c r="AE8" t="n">
-        <v>496708.0933332344</v>
+        <v>546229.3836144098</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.432617445091175e-06</v>
+        <v>4.531781794870116e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.297200520833333</v>
       </c>
       <c r="AH8" t="n">
-        <v>449302.9700396971</v>
+        <v>494098.0178800047</v>
       </c>
     </row>
   </sheetData>
@@ -9220,28 +9220,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>544.0703439908441</v>
+        <v>599.5874205818176</v>
       </c>
       <c r="AB2" t="n">
-        <v>744.4210473378257</v>
+        <v>820.3819607701563</v>
       </c>
       <c r="AC2" t="n">
-        <v>673.3745473814048</v>
+        <v>742.0858578475653</v>
       </c>
       <c r="AD2" t="n">
-        <v>544070.3439908441</v>
+        <v>599587.4205818176</v>
       </c>
       <c r="AE2" t="n">
-        <v>744421.0473378258</v>
+        <v>820381.9607701564</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.871465671606845e-06</v>
+        <v>3.751347988642519e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.854166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>673374.5473814048</v>
+        <v>742085.8578475653</v>
       </c>
     </row>
     <row r="3">
@@ -9326,28 +9326,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>341.2146417762133</v>
+        <v>385.611234878078</v>
       </c>
       <c r="AB3" t="n">
-        <v>466.8649262058008</v>
+        <v>527.6103035272255</v>
       </c>
       <c r="AC3" t="n">
-        <v>422.3079928977577</v>
+        <v>477.2559166642983</v>
       </c>
       <c r="AD3" t="n">
-        <v>341214.6417762134</v>
+        <v>385611.234878078</v>
       </c>
       <c r="AE3" t="n">
-        <v>466864.9262058008</v>
+        <v>527610.3035272255</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.424729610430172e-06</v>
+        <v>4.860364090611043e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.834309895833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>422307.9928977577</v>
+        <v>477255.9166642983</v>
       </c>
     </row>
     <row r="4">
@@ -9432,28 +9432,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>304.9909963355673</v>
+        <v>338.2671954568738</v>
       </c>
       <c r="AB4" t="n">
-        <v>417.3021364394584</v>
+        <v>462.832100119526</v>
       </c>
       <c r="AC4" t="n">
-        <v>377.4754062249027</v>
+        <v>418.66005407305</v>
       </c>
       <c r="AD4" t="n">
-        <v>304990.9963355673</v>
+        <v>338267.1954568738</v>
       </c>
       <c r="AE4" t="n">
-        <v>417302.1364394584</v>
+        <v>462832.100119526</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.561263828678623e-06</v>
+        <v>5.13404656995219e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.4697265625</v>
       </c>
       <c r="AH4" t="n">
-        <v>377475.4062249027</v>
+        <v>418660.05407305</v>
       </c>
     </row>
     <row r="5">
@@ -9538,28 +9538,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>306.5344603772576</v>
+        <v>339.8106594985642</v>
       </c>
       <c r="AB5" t="n">
-        <v>419.413972034127</v>
+        <v>464.9439357141945</v>
       </c>
       <c r="AC5" t="n">
-        <v>379.3856911943959</v>
+        <v>420.5703390425433</v>
       </c>
       <c r="AD5" t="n">
-        <v>306534.4603772576</v>
+        <v>339810.6594985642</v>
       </c>
       <c r="AE5" t="n">
-        <v>419413.972034127</v>
+        <v>464943.9357141946</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.560856567774079e-06</v>
+        <v>5.13323021654625e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.471354166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>379385.6911943959</v>
+        <v>420570.3390425433</v>
       </c>
     </row>
   </sheetData>
@@ -9835,28 +9835,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>388.2896369249282</v>
+        <v>430.8706329524165</v>
       </c>
       <c r="AB2" t="n">
-        <v>531.2750113704851</v>
+        <v>589.5362086762584</v>
       </c>
       <c r="AC2" t="n">
-        <v>480.5708699344468</v>
+        <v>533.2717003394612</v>
       </c>
       <c r="AD2" t="n">
-        <v>388289.6369249282</v>
+        <v>430870.6329524165</v>
       </c>
       <c r="AE2" t="n">
-        <v>531275.0113704851</v>
+        <v>589536.2086762585</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.203349032844453e-06</v>
+        <v>4.609543969569393e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.833658854166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>480570.8699344468</v>
+        <v>533271.7003394612</v>
       </c>
     </row>
     <row r="3">
@@ -9941,28 +9941,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>283.1515678416516</v>
+        <v>325.6472230145682</v>
       </c>
       <c r="AB3" t="n">
-        <v>387.4204668864975</v>
+        <v>445.564897070073</v>
       </c>
       <c r="AC3" t="n">
-        <v>350.4456012748897</v>
+        <v>403.0408086479652</v>
       </c>
       <c r="AD3" t="n">
-        <v>283151.5678416516</v>
+        <v>325647.2230145682</v>
       </c>
       <c r="AE3" t="n">
-        <v>387420.4668864975</v>
+        <v>445564.897070073</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.593959597848839e-06</v>
+        <v>5.426725699529638e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.6552734375</v>
       </c>
       <c r="AH3" t="n">
-        <v>350445.6012748897</v>
+        <v>403040.8086479651</v>
       </c>
     </row>
     <row r="4">
@@ -10047,28 +10047,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>285.0766167011873</v>
+        <v>327.5722718741039</v>
       </c>
       <c r="AB4" t="n">
-        <v>390.054403663276</v>
+        <v>448.1988338468516</v>
       </c>
       <c r="AC4" t="n">
-        <v>352.828158822446</v>
+        <v>405.4233661955214</v>
       </c>
       <c r="AD4" t="n">
-        <v>285076.6167011873</v>
+        <v>327572.2718741039</v>
       </c>
       <c r="AE4" t="n">
-        <v>390054.403663276</v>
+        <v>448198.8338468516</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.593005078412227e-06</v>
+        <v>5.424728785174589e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.656901041666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>352828.158822446</v>
+        <v>405423.3661955214</v>
       </c>
     </row>
   </sheetData>
@@ -17773,28 +17773,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>298.3849045898608</v>
+        <v>329.1811497070938</v>
       </c>
       <c r="AB2" t="n">
-        <v>408.2633902727838</v>
+        <v>450.400171476629</v>
       </c>
       <c r="AC2" t="n">
-        <v>369.2993053064155</v>
+        <v>407.4146112515097</v>
       </c>
       <c r="AD2" t="n">
-        <v>298384.9045898608</v>
+        <v>329181.1497070938</v>
       </c>
       <c r="AE2" t="n">
-        <v>408263.3902727838</v>
+        <v>450400.171476629</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.489141848310585e-06</v>
+        <v>5.411035368942043e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.174479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>369299.3053064155</v>
+        <v>407414.6112515096</v>
       </c>
     </row>
     <row r="3">
@@ -17879,28 +17879,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>269.2736834907926</v>
+        <v>310.2498834477969</v>
       </c>
       <c r="AB3" t="n">
-        <v>368.4321332686048</v>
+        <v>424.4975777921362</v>
       </c>
       <c r="AC3" t="n">
-        <v>333.2694875671952</v>
+        <v>383.9841247537463</v>
       </c>
       <c r="AD3" t="n">
-        <v>269273.6834907926</v>
+        <v>310249.8834477969</v>
       </c>
       <c r="AE3" t="n">
-        <v>368432.1332686049</v>
+        <v>424497.5777921362</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.591393267678773e-06</v>
+        <v>5.63331520691163e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.891276041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>333269.4875671952</v>
+        <v>383984.1247537463</v>
       </c>
     </row>
   </sheetData>
@@ -18176,28 +18176,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>257.0498384019817</v>
+        <v>295.0993477661472</v>
       </c>
       <c r="AB2" t="n">
-        <v>351.7069291399426</v>
+        <v>403.7679464780418</v>
       </c>
       <c r="AC2" t="n">
-        <v>318.1405134467068</v>
+        <v>365.2329003580488</v>
       </c>
       <c r="AD2" t="n">
-        <v>257049.8384019817</v>
+        <v>295099.3477661472</v>
       </c>
       <c r="AE2" t="n">
-        <v>351706.9291399426</v>
+        <v>403767.9464780418</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.425148866071929e-06</v>
+        <v>5.768281968509472e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.903645833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>318140.5134467069</v>
+        <v>365232.9003580488</v>
       </c>
     </row>
   </sheetData>
@@ -18473,28 +18473,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>727.1019185085504</v>
+        <v>796.0707746063287</v>
       </c>
       <c r="AB2" t="n">
-        <v>994.8529223761298</v>
+        <v>1089.219153980298</v>
       </c>
       <c r="AC2" t="n">
-        <v>899.9055557493973</v>
+        <v>985.2656066531019</v>
       </c>
       <c r="AD2" t="n">
-        <v>727101.9185085504</v>
+        <v>796070.7746063287</v>
       </c>
       <c r="AE2" t="n">
-        <v>994852.9223761298</v>
+        <v>1089219.153980298</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.604873644379828e-06</v>
+        <v>3.114382799995014e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.986979166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>899905.5557493973</v>
+        <v>985265.606653102</v>
       </c>
     </row>
     <row r="3">
@@ -18579,28 +18579,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>430.5361426879235</v>
+        <v>465.1060010999353</v>
       </c>
       <c r="AB3" t="n">
-        <v>589.07854433971</v>
+        <v>636.3785497335405</v>
       </c>
       <c r="AC3" t="n">
-        <v>532.857714844857</v>
+        <v>575.6434741098748</v>
       </c>
       <c r="AD3" t="n">
-        <v>430536.1426879234</v>
+        <v>465106.0010999353</v>
       </c>
       <c r="AE3" t="n">
-        <v>589078.54433971</v>
+        <v>636378.5497335405</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.20952015456527e-06</v>
+        <v>4.287746633336695e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.254231770833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>532857.714844857</v>
+        <v>575643.4741098748</v>
       </c>
     </row>
     <row r="4">
@@ -18685,28 +18685,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>353.0186594665888</v>
+        <v>387.6737692246211</v>
       </c>
       <c r="AB4" t="n">
-        <v>483.0157039662795</v>
+        <v>530.4323540127594</v>
       </c>
       <c r="AC4" t="n">
-        <v>436.9173630965354</v>
+        <v>479.8086346122654</v>
       </c>
       <c r="AD4" t="n">
-        <v>353018.6594665888</v>
+        <v>387673.7692246211</v>
       </c>
       <c r="AE4" t="n">
-        <v>483015.7039662796</v>
+        <v>530432.3540127594</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.431092572792834e-06</v>
+        <v>4.71772523675995e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.593424479166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>436917.3630965354</v>
+        <v>479808.6346122654</v>
       </c>
     </row>
     <row r="5">
@@ -18791,28 +18791,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>326.1641587918915</v>
+        <v>360.6486763493317</v>
       </c>
       <c r="AB5" t="n">
-        <v>446.2721914062037</v>
+        <v>493.4554296778365</v>
       </c>
       <c r="AC5" t="n">
-        <v>403.6805998053493</v>
+        <v>446.3607360384283</v>
       </c>
       <c r="AD5" t="n">
-        <v>326164.1587918915</v>
+        <v>360648.6763493316</v>
       </c>
       <c r="AE5" t="n">
-        <v>446272.1914062037</v>
+        <v>493455.4296778365</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.513911418894781e-06</v>
+        <v>4.878441683639486e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.375325520833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>403680.5998053494</v>
+        <v>446360.7360384283</v>
       </c>
     </row>
     <row r="6">
@@ -18897,28 +18897,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>327.747606805827</v>
+        <v>362.2321243632672</v>
       </c>
       <c r="AB6" t="n">
-        <v>448.4387348356664</v>
+        <v>495.6219731072992</v>
       </c>
       <c r="AC6" t="n">
-        <v>405.640371370667</v>
+        <v>448.3205076037459</v>
       </c>
       <c r="AD6" t="n">
-        <v>327747.6068058271</v>
+        <v>362232.1243632672</v>
       </c>
       <c r="AE6" t="n">
-        <v>448438.7348356664</v>
+        <v>495621.9731072992</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.513419035743164e-06</v>
+        <v>4.877486175631879e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.376953125</v>
       </c>
       <c r="AH6" t="n">
-        <v>405640.371370667</v>
+        <v>448320.5076037459</v>
       </c>
     </row>
   </sheetData>
@@ -19194,28 +19194,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1053.945465531137</v>
+        <v>1125.866449755884</v>
       </c>
       <c r="AB2" t="n">
-        <v>1442.054682732062</v>
+        <v>1540.46014627825</v>
       </c>
       <c r="AC2" t="n">
-        <v>1304.427007748572</v>
+        <v>1393.440791966848</v>
       </c>
       <c r="AD2" t="n">
-        <v>1053945.465531137</v>
+        <v>1125866.449755884</v>
       </c>
       <c r="AE2" t="n">
-        <v>1442054.682732062</v>
+        <v>1540460.14627825</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.308130534246208e-06</v>
+        <v>2.454565969296764e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.806640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1304427.007748572</v>
+        <v>1393440.791966848</v>
       </c>
     </row>
     <row r="3">
@@ -19300,28 +19300,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>540.8804577262824</v>
+        <v>588.8277805427804</v>
       </c>
       <c r="AB3" t="n">
-        <v>740.0565042228028</v>
+        <v>805.6601465869282</v>
       </c>
       <c r="AC3" t="n">
-        <v>669.4265501356048</v>
+        <v>728.7690729477888</v>
       </c>
       <c r="AD3" t="n">
-        <v>540880.4577262824</v>
+        <v>588827.7805427804</v>
       </c>
       <c r="AE3" t="n">
-        <v>740056.5042228028</v>
+        <v>805660.1465869283</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.962622829835334e-06</v>
+        <v>3.682650226840455e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.869466145833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>669426.5501356048</v>
+        <v>728769.0729477888</v>
       </c>
     </row>
     <row r="4">
@@ -19406,28 +19406,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>438.1223822406598</v>
+        <v>485.9843642025861</v>
       </c>
       <c r="AB4" t="n">
-        <v>599.4583719770324</v>
+        <v>664.9452472189602</v>
       </c>
       <c r="AC4" t="n">
-        <v>542.2469063006529</v>
+        <v>601.4838060808978</v>
       </c>
       <c r="AD4" t="n">
-        <v>438122.3822406598</v>
+        <v>485984.3642025861</v>
       </c>
       <c r="AE4" t="n">
-        <v>599458.3719770324</v>
+        <v>664945.2472189602</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.210584025771884e-06</v>
+        <v>4.147922688049917e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.9873046875</v>
       </c>
       <c r="AH4" t="n">
-        <v>542246.9063006529</v>
+        <v>601483.8060808978</v>
       </c>
     </row>
     <row r="5">
@@ -19512,28 +19512,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>392.3790873528081</v>
+        <v>428.4249203197532</v>
       </c>
       <c r="AB5" t="n">
-        <v>536.8703778597303</v>
+        <v>586.1898767550221</v>
       </c>
       <c r="AC5" t="n">
-        <v>485.6322224991046</v>
+        <v>530.2447376401813</v>
       </c>
       <c r="AD5" t="n">
-        <v>392379.0873528082</v>
+        <v>428424.9203197532</v>
       </c>
       <c r="AE5" t="n">
-        <v>536870.3778597303</v>
+        <v>586189.8767550221</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.34846677268953e-06</v>
+        <v>4.406644802913045e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.5771484375</v>
       </c>
       <c r="AH5" t="n">
-        <v>485632.2224991046</v>
+        <v>530244.7376401812</v>
       </c>
     </row>
     <row r="6">
@@ -19618,28 +19618,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>362.2985502909272</v>
+        <v>398.1737910572799</v>
       </c>
       <c r="AB6" t="n">
-        <v>495.7128599920286</v>
+        <v>544.7989471124736</v>
       </c>
       <c r="AC6" t="n">
-        <v>448.4027203717573</v>
+        <v>492.8041002301829</v>
       </c>
       <c r="AD6" t="n">
-        <v>362298.5502909272</v>
+        <v>398173.7910572799</v>
       </c>
       <c r="AE6" t="n">
-        <v>495712.8599920286</v>
+        <v>544798.9471124735</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.43055113338035e-06</v>
+        <v>4.560667259455786e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.354166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>448402.7203717573</v>
+        <v>492804.1002301829</v>
       </c>
     </row>
     <row r="7">
@@ -19724,28 +19724,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>355.4134131664005</v>
+        <v>391.2886539327533</v>
       </c>
       <c r="AB7" t="n">
-        <v>486.292311627439</v>
+        <v>535.3783987478838</v>
       </c>
       <c r="AC7" t="n">
-        <v>439.8812559212614</v>
+        <v>484.282635779687</v>
       </c>
       <c r="AD7" t="n">
-        <v>355413.4131664005</v>
+        <v>391288.6539327533</v>
       </c>
       <c r="AE7" t="n">
-        <v>486292.311627439</v>
+        <v>535378.3987478839</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.446968005518515e-06</v>
+        <v>4.591471750764335e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.311848958333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>439881.2559212614</v>
+        <v>484282.635779687</v>
       </c>
     </row>
     <row r="8">
@@ -19830,28 +19830,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>356.6295133569371</v>
+        <v>392.50475412329</v>
       </c>
       <c r="AB8" t="n">
-        <v>487.9562335586851</v>
+        <v>537.0423206791301</v>
       </c>
       <c r="AC8" t="n">
-        <v>441.3863754787185</v>
+        <v>485.7877553371441</v>
       </c>
       <c r="AD8" t="n">
-        <v>356629.5133569372</v>
+        <v>392504.75412329</v>
       </c>
       <c r="AE8" t="n">
-        <v>487956.2335586852</v>
+        <v>537042.32067913</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.447347586377201e-06</v>
+        <v>4.592183993337943e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.310221354166667</v>
       </c>
       <c r="AH8" t="n">
-        <v>441386.3754787185</v>
+        <v>485787.7553371441</v>
       </c>
     </row>
   </sheetData>
@@ -20127,28 +20127,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>271.81042042557</v>
+        <v>308.4512817870546</v>
       </c>
       <c r="AB2" t="n">
-        <v>371.9030086557025</v>
+        <v>422.0366516512035</v>
       </c>
       <c r="AC2" t="n">
-        <v>336.4091074787524</v>
+        <v>381.7580659497726</v>
       </c>
       <c r="AD2" t="n">
-        <v>271810.42042557</v>
+        <v>308451.2817870546</v>
       </c>
       <c r="AE2" t="n">
-        <v>371903.0086557025</v>
+        <v>422036.6516512035</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.195679794661274e-06</v>
+        <v>5.491228537336542e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.0380859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>336409.1074787524</v>
+        <v>381758.0659497726</v>
       </c>
     </row>
   </sheetData>
@@ -20424,28 +20424,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>444.2367390177192</v>
+        <v>487.4072755690703</v>
       </c>
       <c r="AB2" t="n">
-        <v>607.8243046657883</v>
+        <v>666.8921373250032</v>
       </c>
       <c r="AC2" t="n">
-        <v>549.8144061152543</v>
+        <v>603.2448877276973</v>
       </c>
       <c r="AD2" t="n">
-        <v>444236.7390177192</v>
+        <v>487407.2755690703</v>
       </c>
       <c r="AE2" t="n">
-        <v>607824.3046657883</v>
+        <v>666892.1373250032</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.086265281867496e-06</v>
+        <v>4.296211584198053e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.154296875</v>
       </c>
       <c r="AH2" t="n">
-        <v>549814.4061152543</v>
+        <v>603244.8877276974</v>
       </c>
     </row>
     <row r="3">
@@ -20530,28 +20530,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>292.5506722402155</v>
+        <v>325.077854017816</v>
       </c>
       <c r="AB3" t="n">
-        <v>400.2807361838334</v>
+        <v>444.7858612899291</v>
       </c>
       <c r="AC3" t="n">
-        <v>362.0785045199892</v>
+        <v>402.3361229492946</v>
       </c>
       <c r="AD3" t="n">
-        <v>292550.6722402155</v>
+        <v>325077.854017816</v>
       </c>
       <c r="AE3" t="n">
-        <v>400280.7361838334</v>
+        <v>444785.8612899291</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.577261890133877e-06</v>
+        <v>5.307312777593628e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.599934895833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>362078.5045199892</v>
+        <v>402336.1229492946</v>
       </c>
     </row>
     <row r="4">
@@ -20636,28 +20636,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>291.6204931670561</v>
+        <v>324.1476749446565</v>
       </c>
       <c r="AB4" t="n">
-        <v>399.0080241393322</v>
+        <v>443.5131492454279</v>
       </c>
       <c r="AC4" t="n">
-        <v>360.9272583267526</v>
+        <v>401.1848767560581</v>
       </c>
       <c r="AD4" t="n">
-        <v>291620.4931670561</v>
+        <v>324147.6749446565</v>
       </c>
       <c r="AE4" t="n">
-        <v>399008.0241393322</v>
+        <v>443513.1492454279</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.587817585628748e-06</v>
+        <v>5.329049946715159e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.573893229166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>360927.2583267526</v>
+        <v>401184.8767560581</v>
       </c>
     </row>
   </sheetData>
@@ -20933,28 +20933,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>608.7252473777381</v>
+        <v>653.7705662013835</v>
       </c>
       <c r="AB2" t="n">
-        <v>832.8847385248014</v>
+        <v>894.5177309985255</v>
       </c>
       <c r="AC2" t="n">
-        <v>753.3953880410659</v>
+        <v>809.1462142155461</v>
       </c>
       <c r="AD2" t="n">
-        <v>608725.2473777381</v>
+        <v>653770.5662013835</v>
       </c>
       <c r="AE2" t="n">
-        <v>832884.7385248013</v>
+        <v>894517.7309985255</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.777295166368842e-06</v>
+        <v>3.521148945558365e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.2138671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>753395.3880410659</v>
+        <v>809146.2142155461</v>
       </c>
     </row>
     <row r="3">
@@ -21039,28 +21039,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>367.7624044011048</v>
+        <v>412.7222928616274</v>
       </c>
       <c r="AB3" t="n">
-        <v>503.1887462338047</v>
+        <v>564.7048491157828</v>
       </c>
       <c r="AC3" t="n">
-        <v>455.1651185230905</v>
+        <v>510.8102108844053</v>
       </c>
       <c r="AD3" t="n">
-        <v>367762.4044011048</v>
+        <v>412722.2928616274</v>
       </c>
       <c r="AE3" t="n">
-        <v>503188.7462338047</v>
+        <v>564704.8491157829</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.347220989972596e-06</v>
+        <v>4.650276932176866e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.9775390625</v>
       </c>
       <c r="AH3" t="n">
-        <v>455165.1185230905</v>
+        <v>510810.2108844053</v>
       </c>
     </row>
     <row r="4">
@@ -21145,28 +21145,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>313.6718574202047</v>
+        <v>347.3705280605048</v>
       </c>
       <c r="AB4" t="n">
-        <v>429.1796735480215</v>
+        <v>475.287681398504</v>
       </c>
       <c r="AC4" t="n">
-        <v>388.2193678620526</v>
+        <v>429.9268921562805</v>
       </c>
       <c r="AD4" t="n">
-        <v>313671.8574202047</v>
+        <v>347370.5280605048</v>
       </c>
       <c r="AE4" t="n">
-        <v>429179.6735480215</v>
+        <v>475287.681398504</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.540818674402968e-06</v>
+        <v>5.033829588648264e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.4453125</v>
       </c>
       <c r="AH4" t="n">
-        <v>388219.3678620526</v>
+        <v>429926.8921562805</v>
       </c>
     </row>
     <row r="5">
@@ -21251,28 +21251,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>312.9167548232597</v>
+        <v>346.6154254635598</v>
       </c>
       <c r="AB5" t="n">
-        <v>428.1465088621059</v>
+        <v>474.2545167125885</v>
       </c>
       <c r="AC5" t="n">
-        <v>387.284806963705</v>
+        <v>428.992331257933</v>
       </c>
       <c r="AD5" t="n">
-        <v>312916.7548232597</v>
+        <v>346615.4254635598</v>
       </c>
       <c r="AE5" t="n">
-        <v>428146.5088621059</v>
+        <v>474254.5167125885</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.54766100420612e-06</v>
+        <v>5.047385503741847e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.429036458333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>387284.806963705</v>
+        <v>428992.331257933</v>
       </c>
     </row>
   </sheetData>
